--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H2">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I2">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J2">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N2">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="O2">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P2">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q2">
-        <v>300.5471589700834</v>
+        <v>472.6488206227269</v>
       </c>
       <c r="R2">
-        <v>2704.924430730751</v>
+        <v>4253.839385604543</v>
       </c>
       <c r="S2">
-        <v>0.03675408214974086</v>
+        <v>0.04013598122103558</v>
       </c>
       <c r="T2">
-        <v>0.03675408214974087</v>
+        <v>0.04013598122103559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H3">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I3">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J3">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,27 +626,27 @@
         <v>0.305662</v>
       </c>
       <c r="O3">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P3">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q3">
-        <v>2.305948396106444</v>
+        <v>2.474886832558</v>
       </c>
       <c r="R3">
-        <v>20.753535564958</v>
+        <v>22.273981493022</v>
       </c>
       <c r="S3">
-        <v>0.0002819957342933851</v>
+        <v>0.0002101602862456393</v>
       </c>
       <c r="T3">
-        <v>0.0002819957342933852</v>
+        <v>0.0002101602862456393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.63233633333333</v>
+        <v>551.8375956666666</v>
       </c>
       <c r="H4">
-        <v>67.897009</v>
+        <v>1655.512787</v>
       </c>
       <c r="I4">
-        <v>0.0374450040810979</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J4">
-        <v>0.0374450040810979</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06290533333333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N4">
-        <v>0.188716</v>
+        <v>58.374703</v>
       </c>
       <c r="O4">
-        <v>0.004649603600079689</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P4">
-        <v>0.004649603600079689</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q4">
-        <v>1.423694661160444</v>
+        <v>10737.78525042525</v>
       </c>
       <c r="R4">
-        <v>12.813251950444</v>
+        <v>96640.06725382726</v>
       </c>
       <c r="S4">
-        <v>0.0001741044257804714</v>
+        <v>0.9118219032023915</v>
       </c>
       <c r="T4">
-        <v>0.0001741044257804715</v>
+        <v>0.9118219032023916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.63233633333333</v>
+        <v>551.8375956666666</v>
       </c>
       <c r="H5">
-        <v>67.897009</v>
+        <v>1655.512787</v>
       </c>
       <c r="I5">
-        <v>0.0374450040810979</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J5">
-        <v>0.0374450040810979</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.084843</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N5">
-        <v>0.254529</v>
+        <v>0.305662</v>
       </c>
       <c r="O5">
-        <v>0.006271110847647699</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P5">
-        <v>0.0062711108476477</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q5">
-        <v>1.920195311529</v>
+        <v>56.22526105555488</v>
       </c>
       <c r="R5">
-        <v>17.281757803761</v>
+        <v>506.0273494999939</v>
       </c>
       <c r="S5">
-        <v>0.0002348217712831854</v>
+        <v>0.004774487787572117</v>
       </c>
       <c r="T5">
-        <v>0.0002348217712831855</v>
+        <v>0.004774487787572118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>551.8375956666666</v>
+        <v>0.741047</v>
       </c>
       <c r="H6">
-        <v>1655.512787</v>
+        <v>2.223141</v>
       </c>
       <c r="I6">
-        <v>0.9130105136961889</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="J6">
-        <v>0.9130105136961888</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,33 +806,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N6">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="O6">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P6">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q6">
-        <v>7328.152920130766</v>
+        <v>14.41946617801367</v>
       </c>
       <c r="R6">
-        <v>65953.37628117688</v>
+        <v>129.775195602123</v>
       </c>
       <c r="S6">
-        <v>0.896163967596046</v>
+        <v>0.001224459680182022</v>
       </c>
       <c r="T6">
-        <v>0.896163967596046</v>
+        <v>0.001224459680182022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>551.8375956666666</v>
+        <v>0.741047</v>
       </c>
       <c r="H7">
-        <v>1655.512787</v>
+        <v>2.223141</v>
       </c>
       <c r="I7">
-        <v>0.9130105136961889</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="J7">
-        <v>0.9130105136961888</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,27 +874,27 @@
         <v>0.305662</v>
       </c>
       <c r="O7">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P7">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q7">
-        <v>56.22526105555488</v>
+        <v>0.07550330270466667</v>
       </c>
       <c r="R7">
-        <v>506.0273494999939</v>
+        <v>0.679529724342</v>
       </c>
       <c r="S7">
-        <v>0.006875818992293953</v>
+        <v>6.411523751372187E-06</v>
       </c>
       <c r="T7">
-        <v>0.006875818992293953</v>
+        <v>6.411523751372187E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>551.8375956666666</v>
+        <v>24.947199</v>
       </c>
       <c r="H8">
-        <v>1655.512787</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I8">
-        <v>0.9130105136961889</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J8">
-        <v>0.9130105136961888</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06290533333333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N8">
-        <v>0.188716</v>
+        <v>58.374703</v>
       </c>
       <c r="O8">
-        <v>0.004649603600079689</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P8">
-        <v>0.004649603600079689</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q8">
-        <v>34.71352790127688</v>
+        <v>485.428444102299</v>
       </c>
       <c r="R8">
-        <v>312.421751111492</v>
+        <v>4368.855996920691</v>
       </c>
       <c r="S8">
-        <v>0.004245136971392406</v>
+        <v>0.04122119016604515</v>
       </c>
       <c r="T8">
-        <v>0.004245136971392406</v>
+        <v>0.04122119016604515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>551.8375956666666</v>
+        <v>24.947199</v>
       </c>
       <c r="H9">
-        <v>1655.512787</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I9">
-        <v>0.9130105136961889</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J9">
-        <v>0.9130105136961888</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.084843</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N9">
-        <v>0.254529</v>
+        <v>0.305662</v>
       </c>
       <c r="O9">
-        <v>0.006271110847647699</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P9">
-        <v>0.0062711108476477</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q9">
-        <v>46.819557129147</v>
+        <v>2.541803580246</v>
       </c>
       <c r="R9">
-        <v>421.376014162323</v>
+        <v>22.876232222214</v>
       </c>
       <c r="S9">
-        <v>0.005725590136456568</v>
+        <v>0.0002158426643906641</v>
       </c>
       <c r="T9">
-        <v>0.005725590136456568</v>
+        <v>0.0002158426643906641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1065133333333333</v>
+        <v>0.234537</v>
       </c>
       <c r="H10">
-        <v>0.31954</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I10">
-        <v>0.0001762253857761838</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J10">
-        <v>0.0001762253857761838</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.27954633333333</v>
+        <v>19.45823433333333</v>
       </c>
       <c r="N10">
-        <v>39.838639</v>
+        <v>58.374703</v>
       </c>
       <c r="O10">
-        <v>0.9815483547588711</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="P10">
-        <v>0.9815483547588713</v>
+        <v>0.9947910685286296</v>
       </c>
       <c r="Q10">
-        <v>1.414448745117778</v>
+        <v>4.563675905837001</v>
       </c>
       <c r="R10">
-        <v>12.73003870606</v>
+        <v>41.07308315253301</v>
       </c>
       <c r="S10">
-        <v>0.0001729737374753606</v>
+        <v>0.0003875342589752755</v>
       </c>
       <c r="T10">
-        <v>0.0001729737374753606</v>
+        <v>0.0003875342589752756</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1065133333333333</v>
+        <v>0.234537</v>
       </c>
       <c r="H11">
-        <v>0.31954</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I11">
-        <v>0.0001762253857761838</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J11">
-        <v>0.0001762253857761838</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,642 +1122,22 @@
         <v>0.305662</v>
       </c>
       <c r="O11">
-        <v>0.007530930793401502</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="P11">
-        <v>0.007530930793401503</v>
+        <v>0.005208931471370364</v>
       </c>
       <c r="Q11">
-        <v>0.01085235949777778</v>
+        <v>0.023896349498</v>
       </c>
       <c r="R11">
-        <v>0.09767123547999999</v>
+        <v>0.215067145482</v>
       </c>
       <c r="S11">
-        <v>1.327141184320922E-06</v>
+        <v>2.029209410571231E-06</v>
       </c>
       <c r="T11">
-        <v>1.327141184320922E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.1065133333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.31954</v>
-      </c>
-      <c r="I12">
-        <v>0.0001762253857761838</v>
-      </c>
-      <c r="J12">
-        <v>0.0001762253857761838</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.188716</v>
-      </c>
-      <c r="O12">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="P12">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="Q12">
-        <v>0.006700256737777777</v>
-      </c>
-      <c r="R12">
-        <v>0.06030231064</v>
-      </c>
-      <c r="S12">
-        <v>8.193781881303763E-07</v>
-      </c>
-      <c r="T12">
-        <v>8.193781881303763E-07</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.1065133333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.31954</v>
-      </c>
-      <c r="I13">
-        <v>0.0001762253857761838</v>
-      </c>
-      <c r="J13">
-        <v>0.0001762253857761838</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.084843</v>
-      </c>
-      <c r="N13">
-        <v>0.254529</v>
-      </c>
-      <c r="O13">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="P13">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="Q13">
-        <v>0.009036910740000001</v>
-      </c>
-      <c r="R13">
-        <v>0.08133219665999999</v>
-      </c>
-      <c r="S13">
-        <v>1.105128928371927E-06</v>
-      </c>
-      <c r="T13">
-        <v>1.105128928371927E-06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>29.30256466666667</v>
-      </c>
-      <c r="H14">
-        <v>87.90769400000001</v>
-      </c>
-      <c r="I14">
-        <v>0.04848083898054929</v>
-      </c>
-      <c r="J14">
-        <v>0.04848083898054929</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>13.27954633333333</v>
-      </c>
-      <c r="N14">
-        <v>39.838639</v>
-      </c>
-      <c r="O14">
-        <v>0.9815483547588711</v>
-      </c>
-      <c r="P14">
-        <v>0.9815483547588713</v>
-      </c>
-      <c r="Q14">
-        <v>389.1247651764963</v>
-      </c>
-      <c r="R14">
-        <v>3502.122886588466</v>
-      </c>
-      <c r="S14">
-        <v>0.04758628773868791</v>
-      </c>
-      <c r="T14">
-        <v>0.04758628773868791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>29.30256466666667</v>
-      </c>
-      <c r="H15">
-        <v>87.90769400000001</v>
-      </c>
-      <c r="I15">
-        <v>0.04848083898054929</v>
-      </c>
-      <c r="J15">
-        <v>0.04848083898054929</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.1018873333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.305662</v>
-      </c>
-      <c r="O15">
-        <v>0.007530930793401502</v>
-      </c>
-      <c r="P15">
-        <v>0.007530930793401503</v>
-      </c>
-      <c r="Q15">
-        <v>2.985560173714223</v>
-      </c>
-      <c r="R15">
-        <v>26.870041563428</v>
-      </c>
-      <c r="S15">
-        <v>0.0003651058431685586</v>
-      </c>
-      <c r="T15">
-        <v>0.0003651058431685586</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>29.30256466666667</v>
-      </c>
-      <c r="H16">
-        <v>87.90769400000001</v>
-      </c>
-      <c r="I16">
-        <v>0.04848083898054929</v>
-      </c>
-      <c r="J16">
-        <v>0.04848083898054929</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.188716</v>
-      </c>
-      <c r="O16">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="P16">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="Q16">
-        <v>1.843287597878222</v>
-      </c>
-      <c r="R16">
-        <v>16.589588380904</v>
-      </c>
-      <c r="S16">
-        <v>0.0002254166834588457</v>
-      </c>
-      <c r="T16">
-        <v>0.0002254166834588457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>29.30256466666667</v>
-      </c>
-      <c r="H17">
-        <v>87.90769400000001</v>
-      </c>
-      <c r="I17">
-        <v>0.04848083898054929</v>
-      </c>
-      <c r="J17">
-        <v>0.04848083898054929</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.084843</v>
-      </c>
-      <c r="N17">
-        <v>0.254529</v>
-      </c>
-      <c r="O17">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="P17">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="Q17">
-        <v>2.486117494014</v>
-      </c>
-      <c r="R17">
-        <v>22.375057446126</v>
-      </c>
-      <c r="S17">
-        <v>0.0003040287152339841</v>
-      </c>
-      <c r="T17">
-        <v>0.0003040287152339841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.5363690000000001</v>
-      </c>
-      <c r="H18">
-        <v>1.609107</v>
-      </c>
-      <c r="I18">
-        <v>0.0008874178563878008</v>
-      </c>
-      <c r="J18">
-        <v>0.0008874178563878007</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>13.27954633333333</v>
-      </c>
-      <c r="N18">
-        <v>39.838639</v>
-      </c>
-      <c r="O18">
-        <v>0.9815483547588711</v>
-      </c>
-      <c r="P18">
-        <v>0.9815483547588713</v>
-      </c>
-      <c r="Q18">
-        <v>7.122736987263669</v>
-      </c>
-      <c r="R18">
-        <v>64.10463288537301</v>
-      </c>
-      <c r="S18">
-        <v>0.00087104353692109</v>
-      </c>
-      <c r="T18">
-        <v>0.00087104353692109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.5363690000000001</v>
-      </c>
-      <c r="H19">
-        <v>1.609107</v>
-      </c>
-      <c r="I19">
-        <v>0.0008874178563878008</v>
-      </c>
-      <c r="J19">
-        <v>0.0008874178563878007</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.1018873333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.305662</v>
-      </c>
-      <c r="O19">
-        <v>0.007530930793401502</v>
-      </c>
-      <c r="P19">
-        <v>0.007530930793401503</v>
-      </c>
-      <c r="Q19">
-        <v>0.05464920709266667</v>
-      </c>
-      <c r="R19">
-        <v>0.4918428638340001</v>
-      </c>
-      <c r="S19">
-        <v>6.683082461285241E-06</v>
-      </c>
-      <c r="T19">
-        <v>6.683082461285241E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.5363690000000001</v>
-      </c>
-      <c r="H20">
-        <v>1.609107</v>
-      </c>
-      <c r="I20">
-        <v>0.0008874178563878008</v>
-      </c>
-      <c r="J20">
-        <v>0.0008874178563878007</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.06290533333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.188716</v>
-      </c>
-      <c r="O20">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="P20">
-        <v>0.004649603600079689</v>
-      </c>
-      <c r="Q20">
-        <v>0.03374047073466667</v>
-      </c>
-      <c r="R20">
-        <v>0.303664236612</v>
-      </c>
-      <c r="S20">
-        <v>4.126141259835718E-06</v>
-      </c>
-      <c r="T20">
-        <v>4.126141259835719E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.5363690000000001</v>
-      </c>
-      <c r="H21">
-        <v>1.609107</v>
-      </c>
-      <c r="I21">
-        <v>0.0008874178563878008</v>
-      </c>
-      <c r="J21">
-        <v>0.0008874178563878007</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.084843</v>
-      </c>
-      <c r="N21">
-        <v>0.254529</v>
-      </c>
-      <c r="O21">
-        <v>0.006271110847647699</v>
-      </c>
-      <c r="P21">
-        <v>0.0062711108476477</v>
-      </c>
-      <c r="Q21">
-        <v>0.04550715506700001</v>
-      </c>
-      <c r="R21">
-        <v>0.4095643956030001</v>
-      </c>
-      <c r="S21">
-        <v>5.565095745589806E-06</v>
-      </c>
-      <c r="T21">
-        <v>5.565095745589806E-06</v>
+        <v>2.029209410571231E-06</v>
       </c>
     </row>
   </sheetData>
